--- a/medicine/Hématologie/Sphérocytose/Sphérocytose.xlsx
+++ b/medicine/Hématologie/Sphérocytose/Sphérocytose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sph%C3%A9rocytose</t>
+          <t>Sphérocytose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sphérocytose est une anémie hémolytique secondaire caractérisée par des anomalies des protéines membranaires du globule rouge. Les globules rouges fabriqués sont de forme sphérique au lieu d'être en forme de disques biconcaves.
 </t>
